--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -701,7 +701,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-followup-score</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>92</v>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-score-observation</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-gas-score-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-progress-score-observation</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-progress-score-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -701,7 +701,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -756,7 +756,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-gas-goal-profile)
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-score-answers</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/gas-score-answers</t>
   </si>
   <si>
     <t>obs-7

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>PCO Goal Attainment Scaling (GAS) score</t>
+    <t>Goal Attainment Scaling (GAS) score</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-progress-score-observation</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -272,14 +272,14 @@
 </t>
   </si>
   <si>
-    <t>Survey Observation</t>
+    <t>assessment observation</t>
   </si>
   <si>
     <t>\-</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}us-core-3:SHALL use UCUM for coded quantity units. {value.ofType(Quantity).system.empty() or value.ofType(Quantity).system = 'http://unitsofmeasure.org'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -622,7 +622,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -644,39 +644,31 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Observation.category:us-core</t>
+  </si>
+  <si>
+    <t>us-core</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+  </si>
+  <si>
     <t>Observation.category:survey</t>
   </si>
   <si>
     <t>survey</t>
   </si>
   <si>
-    <t>Used for filtering if the observation is an assessment or screening.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="survey"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.category:screening-assessment</t>
-  </si>
-  <si>
-    <t>screening-assessment</t>
-  </si>
-  <si>
-    <t>Categories that a provider may use in their workflow to classify that this Observation is related to a USCDI Health Status/Assessments Data Class.</t>
-  </si>
-  <si>
-    <t>Used for filtering the type of screening or assessment observation.</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
+    <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -837,14 +829,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {$this is DateTime implies $this.toString().length() &gt;= 10}</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -904,9 +888,6 @@
     <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
-    <t>Some questions on questionnaires are not answered directly (e.g., asserted) by the individual completing the questionnaire, but are derived from answers to one or more other questions. For types of answers, `Observation.performer` should not be specified and `Observation.derivedFrom` should reference the relevant Screening Response Observation(s).</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -931,7 +912,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have a value if it represents an individual survey, screening, or assessment question and answer pair. An observation should not have a value if it represents a multi-question or multi-select “check all that apply” responses. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -940,8 +921,8 @@
     <t>http://hl7.org/fhir/us/pco/ValueSet/gas-score-answers</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -959,13 +940,14 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>(USCDI) Why the result is missing</t>
+    <t>Why the result is missing</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values. For a given LOINC question, if the LOINC answer list includes concepts such as 'unknown' or 'not available', they should be used for Observation.value. Where these concepts are not part of the value set for Observation.value, the Observation.dataAbsentReason can be used if necessary and appropriate.</t>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
@@ -977,8 +959,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1360,17 +1342,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) Reference to panel members or multi-select responses or multi-select responses</t>
-  </si>
-  <si>
-    <t>Aggregate set of Observations that represent question answer pairs for both multi-question surveys, screenings, and assessments and multi-select questions.</t>
-  </si>
-  <si>
-    <t>This grouping element is used to represent surveys, screenings, and assessments that group several questions together or individual questions with  “check all that apply” responses. For example in the simplest case a flat multi-question survey where the "panel" observation is the survey instrument itself and instead of an `Observation.value` the `hasMember` element references other Observation that represent the individual questions answer pairs. When there is a heirarchical grouping of questions, the observation "panels" can be nested. Because surveys, screenings, and assessments can be arbitrarily complex structurally, not all structures can be represented using this Observation grouping pattern.</t>
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1382,14 +1364,14 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|ImagingStudy|Media|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) Related Observation(s) or other resource the observation is made from</t>
-  </si>
-  <si>
-    <t>Observations or or other resource such as a QuestionnaireResponse from which this observation value is derived.</t>
+    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
+  </si>
+  <si>
+    <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
@@ -1477,10 +1459,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1823,7 +1801,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1846,7 +1824,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3689,10 +3667,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3726,28 +3704,28 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3800,23 +3778,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3834,7 +3812,7 @@
         <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>193</v>
@@ -3867,11 +3845,9 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3924,14 +3900,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3953,16 +3929,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3987,11 +3963,11 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4009,7 +3985,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4024,30 +4000,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4070,19 +4046,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4131,7 +4107,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4146,19 +4122,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4166,10 +4142,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4192,16 +4168,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4251,7 +4227,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4272,13 +4248,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4286,14 +4262,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4312,19 +4288,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4373,7 +4349,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4388,19 +4364,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4408,14 +4384,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4434,19 +4410,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4483,17 +4459,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4502,25 +4478,25 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4528,16 +4504,16 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4556,19 +4532,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4617,7 +4593,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4626,25 +4602,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4652,10 +4628,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4678,16 +4654,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4737,7 +4713,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4758,13 +4734,13 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4772,10 +4748,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4798,19 +4774,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4859,7 +4833,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4874,19 +4848,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4894,10 +4868,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4923,16 +4897,16 @@
         <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4961,7 +4935,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4979,7 +4953,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4988,7 +4962,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4997,27 +4971,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5031,7 +5005,7 @@
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5043,16 +5017,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5077,13 +5051,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5101,7 +5075,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5110,7 +5084,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5125,7 +5099,7 @@
         <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5136,14 +5110,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5165,16 +5139,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5199,13 +5173,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5223,7 +5197,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5241,27 +5215,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5284,19 +5258,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5345,7 +5319,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5366,10 +5340,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5380,10 +5354,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5409,13 +5383,13 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5441,13 +5415,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5465,7 +5439,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5483,27 +5457,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5529,16 +5503,16 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5563,13 +5537,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5587,7 +5561,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5608,10 +5582,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5622,10 +5596,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5648,16 +5622,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5707,7 +5681,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5725,27 +5699,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5768,16 +5742,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5827,7 +5801,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5845,27 +5819,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5888,19 +5862,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5949,7 +5923,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5961,7 +5935,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5970,10 +5944,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5984,10 +5958,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6010,13 +5984,13 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6067,7 +6041,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6091,7 +6065,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6102,10 +6076,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6134,7 +6108,7 @@
         <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6187,7 +6161,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6185,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6222,14 +6196,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6251,10 +6225,10 @@
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
@@ -6309,7 +6283,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6344,10 +6318,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6370,13 +6344,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6427,7 +6401,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6436,7 +6410,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6448,10 +6422,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6462,10 +6436,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6488,13 +6462,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6545,7 +6519,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6554,7 +6528,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6566,10 +6540,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6580,10 +6554,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6609,16 +6583,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6646,10 +6620,10 @@
         <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6667,7 +6641,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6685,13 +6659,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6702,10 +6676,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6731,16 +6705,16 @@
         <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6765,13 +6739,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6789,7 +6763,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6807,13 +6781,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6824,10 +6798,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6850,17 +6824,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6909,7 +6883,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6933,7 +6907,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6944,10 +6918,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6970,13 +6944,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7027,7 +7001,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7048,10 +7022,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7062,10 +7036,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7079,7 +7053,7 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7088,16 +7062,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7147,7 +7121,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7168,10 +7142,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7182,10 +7156,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7199,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -7208,16 +7182,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7267,7 +7241,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7288,10 +7262,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7302,10 +7276,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7328,19 +7302,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7389,7 +7363,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7410,10 +7384,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7424,10 +7398,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7450,13 +7424,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7507,7 +7481,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7531,7 +7505,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7542,10 +7516,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7574,7 +7548,7 @@
         <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7627,7 +7601,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7651,7 +7625,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7662,14 +7636,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7691,10 +7665,10 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7749,7 +7723,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7784,10 +7758,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7813,16 +7787,16 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7847,13 +7821,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7871,7 +7845,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>92</v>
@@ -7889,16 +7863,16 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7906,10 +7880,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7932,19 +7906,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7993,7 +7967,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8011,27 +7985,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8057,16 +8031,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8091,13 +8065,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8115,7 +8089,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8124,7 +8098,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8139,7 +8113,7 @@
         <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8150,14 +8124,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8179,16 +8153,16 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8213,13 +8187,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8237,7 +8211,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8255,27 +8229,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8301,16 +8275,16 @@
         <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8359,7 +8333,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8380,10 +8354,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
@@ -3845,9 +3848,11 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3900,14 +3905,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3929,16 +3934,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3963,11 +3968,11 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3985,7 +3990,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4000,30 +4005,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4046,19 +4051,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4107,7 +4112,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4122,19 +4127,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4142,10 +4147,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4168,16 +4173,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4227,7 +4232,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4248,13 +4253,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4262,14 +4267,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4288,19 +4293,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4349,7 +4354,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4364,19 +4369,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4384,14 +4389,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4410,19 +4415,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4459,17 +4464,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4484,19 +4489,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4504,16 +4509,16 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4532,19 +4537,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4593,7 +4598,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4608,19 +4613,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4628,10 +4633,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4654,16 +4659,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4713,7 +4718,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4734,13 +4739,13 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4748,10 +4753,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4774,17 +4779,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4833,7 +4838,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4848,19 +4853,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4868,10 +4873,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4897,16 +4902,16 @@
         <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4935,7 +4940,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4953,7 +4958,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4962,7 +4967,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4971,27 +4976,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5017,16 +5022,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5051,13 +5056,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5075,7 +5080,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5084,7 +5089,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5099,7 +5104,7 @@
         <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5110,14 +5115,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5139,16 +5144,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5173,13 +5178,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5197,7 +5202,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5215,27 +5220,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5258,19 +5263,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5319,7 +5324,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5340,10 +5345,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5354,10 +5359,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5383,13 +5388,13 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5415,13 +5420,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5439,7 +5444,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5457,27 +5462,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5503,16 +5508,16 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5537,13 +5542,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5561,7 +5566,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5582,10 +5587,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5596,10 +5601,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5622,16 +5627,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5681,7 +5686,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5699,27 +5704,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5742,16 +5747,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5801,7 +5806,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5819,27 +5824,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5862,19 +5867,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5923,7 +5928,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5935,7 +5940,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5944,10 +5949,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5958,10 +5963,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5984,13 +5989,13 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6041,7 +6046,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6065,7 +6070,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6076,10 +6081,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6108,7 +6113,7 @@
         <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6161,7 +6166,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6185,7 +6190,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6196,14 +6201,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6225,10 +6230,10 @@
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
@@ -6283,7 +6288,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6318,10 +6323,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6344,13 +6349,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6401,7 +6406,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6410,7 +6415,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6422,10 +6427,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6436,10 +6441,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6462,13 +6467,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6519,7 +6524,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6528,7 +6533,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6540,10 +6545,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6554,10 +6559,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6583,16 +6588,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6620,10 +6625,10 @@
         <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6641,7 +6646,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6659,13 +6664,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6676,10 +6681,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6705,16 +6710,16 @@
         <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6739,13 +6744,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6763,7 +6768,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6781,13 +6786,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6798,10 +6803,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6824,17 +6829,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6883,7 +6888,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6907,7 +6912,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6918,10 +6923,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6944,13 +6949,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7001,7 +7006,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7022,10 +7027,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7036,10 +7041,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7062,16 +7067,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7121,7 +7126,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7142,10 +7147,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7156,10 +7161,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7182,16 +7187,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7241,7 +7246,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7262,10 +7267,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7276,10 +7281,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7302,19 +7307,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7363,7 +7368,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7384,10 +7389,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7398,10 +7403,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7424,13 +7429,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7481,7 +7486,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7505,7 +7510,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7516,10 +7521,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7548,7 +7553,7 @@
         <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7601,7 +7606,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7625,7 +7630,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7636,14 +7641,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7665,10 +7670,10 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7723,7 +7728,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7758,10 +7763,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7787,16 +7792,16 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7821,13 +7826,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7845,7 +7850,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>92</v>
@@ -7863,16 +7868,16 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7880,10 +7885,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7906,19 +7911,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7967,7 +7972,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7985,27 +7990,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8031,16 +8036,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8065,13 +8070,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8089,7 +8094,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8098,7 +8103,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8113,7 +8118,7 @@
         <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8124,14 +8129,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8153,16 +8158,16 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8187,13 +8192,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8211,7 +8216,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8229,27 +8234,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8275,16 +8280,16 @@
         <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8333,7 +8338,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8354,10 +8359,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -650,28 +650,18 @@
     <t>us-core</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
-  </si>
-  <si>
-    <t>Observation.category:survey</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Indicates the person-centered outcomes observation is of type survey</t>
-  </si>
-  <si>
-    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -1793,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3670,10 +3660,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3697,7 +3687,7 @@
         <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3707,7 +3697,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3784,13 +3774,11 @@
         <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3806,22 +3794,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3846,13 +3834,11 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3870,13 +3856,13 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
@@ -3885,34 +3871,34 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3931,19 +3917,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3968,11 +3954,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3990,10 +3978,10 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>92</v>
@@ -4005,30 +3993,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4036,7 +4024,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -4051,20 +4039,18 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4112,13 +4098,13 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
@@ -4127,19 +4113,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4147,14 +4133,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4164,7 +4150,7 @@
         <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
@@ -4173,18 +4159,20 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4232,13 +4220,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4247,19 +4235,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4267,24 +4255,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4293,19 +4281,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4342,19 +4330,17 @@
         <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4369,19 +4355,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4389,14 +4375,16 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4415,19 +4403,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4464,17 +4452,19 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4489,19 +4479,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4509,26 +4499,24 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -4537,20 +4525,18 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4598,7 +4584,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4613,19 +4599,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4633,10 +4619,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4647,10 +4633,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4659,18 +4645,18 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4718,13 +4704,13 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
@@ -4733,19 +4719,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4753,10 +4739,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4764,10 +4750,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>93</v>
@@ -4779,17 +4765,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4814,13 +4802,11 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4838,45 +4824,45 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4884,34 +4870,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4936,11 +4922,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4958,7 +4946,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4967,7 +4955,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4976,38 +4964,38 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5022,16 +5010,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5056,13 +5044,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5080,16 +5068,16 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5098,31 +5086,31 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5141,19 +5129,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5178,31 +5166,31 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5220,27 +5208,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5251,7 +5239,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5263,20 +5251,18 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5300,13 +5286,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5324,13 +5310,13 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5342,27 +5328,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5388,15 +5374,17 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5420,31 +5408,31 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Z30" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5462,27 +5450,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5505,20 +5493,18 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5542,13 +5528,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5566,7 +5552,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5584,27 +5570,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5627,16 +5613,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5686,7 +5672,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5704,27 +5690,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5735,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5747,18 +5733,20 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5806,45 +5794,45 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5855,7 +5843,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5867,20 +5855,16 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5928,19 +5912,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5949,10 +5933,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5963,21 +5947,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5989,15 +5973,17 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6046,19 +6032,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6070,7 +6056,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6081,14 +6067,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6101,16 +6087,16 @@
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>139</v>
+        <v>378</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>379</v>
@@ -6118,7 +6104,9 @@
       <c r="N36" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6190,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6208,26 +6196,26 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>382</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>383</v>
@@ -6235,12 +6223,8 @@
       <c r="M37" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6288,19 +6272,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ37" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6309,10 +6293,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6323,10 +6307,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6349,13 +6333,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6406,7 +6390,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6415,7 +6399,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6427,10 +6411,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6441,10 +6425,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6467,16 +6451,20 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6500,13 +6488,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6524,7 +6512,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6533,7 +6521,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6542,13 +6530,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6559,10 +6547,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6573,7 +6561,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6588,16 +6576,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6622,13 +6610,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6646,13 +6634,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6664,13 +6652,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6681,10 +6669,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6695,7 +6683,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6707,19 +6695,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6744,13 +6730,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6768,13 +6754,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6786,13 +6772,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6803,10 +6789,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6829,7 +6815,7 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>415</v>
@@ -6838,9 +6824,7 @@
         <v>416</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>417</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6888,7 +6872,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6909,10 +6893,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6923,10 +6907,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6937,7 +6921,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6946,10 +6930,10 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>420</v>
@@ -6957,7 +6941,9 @@
       <c r="M43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7006,13 +6992,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7027,10 +7013,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7041,10 +7027,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7067,16 +7053,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7126,7 +7112,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7147,10 +7133,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7161,10 +7147,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7187,7 +7173,7 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>432</v>
@@ -7198,7 +7184,9 @@
       <c r="N45" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7246,7 +7234,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7267,10 +7255,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7281,10 +7269,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7295,7 +7283,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7304,23 +7292,19 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7368,19 +7352,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7389,10 +7373,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7403,21 +7387,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7429,15 +7413,17 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7486,19 +7472,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7510,7 +7496,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7521,14 +7507,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7541,16 +7527,16 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>139</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>379</v>
@@ -7558,7 +7544,9 @@
       <c r="N48" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7630,7 +7618,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7641,45 +7629,45 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>141</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7704,13 +7692,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7728,34 +7716,34 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7763,10 +7751,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7774,7 +7762,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>92</v>
@@ -7789,19 +7777,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>449</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>282</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7826,13 +7814,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7850,10 +7838,10 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>92</v>
@@ -7871,16 +7859,16 @@
         <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7908,22 +7896,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>456</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7948,13 +7936,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7981,7 +7969,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7990,38 +7978,38 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8036,16 +8024,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>459</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>460</v>
+        <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>461</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8070,13 +8058,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8094,16 +8082,16 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8112,31 +8100,31 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8155,19 +8143,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>308</v>
+        <v>460</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8192,13 +8180,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8216,7 +8204,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8234,145 +8222,23 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP54" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP54">
+  <autoFilter ref="A1:AP53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8382,7 +8248,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3663,7 +3663,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Goal Attainment Scaling (GAS) score</t>
+    <t>Goal Attainment Scaling (GAS) score observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-score-observation.xlsx
+++ b/StructureDefinition-pco-gas-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
